--- a/docentes/Polanco Domínguez Rosa María - Estadisticos 20202.xlsx
+++ b/docentes/Polanco Domínguez Rosa María - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>Mat</t>
   </si>
@@ -94,30 +94,45 @@
     <t>SAN JUAN</t>
   </si>
   <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>ESPARZA</t>
   </si>
   <si>
@@ -133,9 +148,6 @@
     <t>GIL</t>
   </si>
   <si>
-    <t>PAZ</t>
-  </si>
-  <si>
     <t>TZOYONTLE</t>
   </si>
   <si>
@@ -148,30 +160,42 @@
     <t>CANSECO</t>
   </si>
   <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>FERNANDEZ</t>
   </si>
   <si>
@@ -190,9 +214,6 @@
     <t>REYES</t>
   </si>
   <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
     <t>ALMA LIZETH</t>
   </si>
   <si>
@@ -205,31 +226,46 @@
     <t>MARTI NEFTALI</t>
   </si>
   <si>
+    <t>JOSMAR ANTONIO</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>ANDREA YAMILET</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>YULENNY</t>
+  </si>
+  <si>
+    <t>URI YAEL</t>
+  </si>
+  <si>
+    <t>JOSE ARMANDO</t>
+  </si>
+  <si>
+    <t>OSWALDO VIDAL</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>JUAN EFRAIN</t>
+  </si>
+  <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
     <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>YULENNY</t>
-  </si>
-  <si>
-    <t>URI YAEL</t>
-  </si>
-  <si>
-    <t>JOSE ARMANDO</t>
-  </si>
-  <si>
-    <t>OSWALDO VIDAL</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>JUAN EFRAIN</t>
-  </si>
-  <si>
-    <t>ABRAHAM</t>
   </si>
   <si>
     <t>VALENTIN</t>
@@ -1124,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1165,10 +1201,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1188,10 +1224,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1211,10 +1247,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1234,10 +1270,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1251,16 +1287,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920321</v>
+        <v>19330051920311</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1274,22 +1310,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920360</v>
+        <v>19330051920334</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1297,22 +1333,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920128</v>
+        <v>19330051920342</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1320,22 +1356,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920135</v>
+        <v>19330051920350</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1343,22 +1379,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920040</v>
+        <v>19330051920354</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1366,22 +1402,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920053</v>
+        <v>19330051920360</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1389,114 +1425,114 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920056</v>
+        <v>18330051920128</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920071</v>
+        <v>18330051920135</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920441</v>
+        <v>18330051920040</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920427</v>
+        <v>18330051920053</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920374</v>
+        <v>19330051920056</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1504,22 +1540,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920382</v>
+        <v>19330051920071</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1527,22 +1563,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18330051920116</v>
+        <v>19330051920441</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1550,22 +1586,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>18330051920120</v>
+        <v>19330051920321</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1573,22 +1609,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18330051920121</v>
+        <v>19330051920427</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1596,24 +1632,139 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
+        <v>19330051920374</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
         <v>18330051920455</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G21">
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
